--- a/BestBuy_Project/allData/SignUpData.xlsx
+++ b/BestBuy_Project/allData/SignUpData.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BestBuy_Project\BestBuy_Project\allData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2669F885-7E4C-4DFC-AC2E-8FB061090AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D6112-D712-4E3C-AB8D-4F58DC5EE85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6810" yWindow="3360" windowWidth="21600" windowHeight="11295" xr2:uid="{7F8061A2-059E-4BAF-AE10-41E91318F806}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -64,28 +63,19 @@
     <t>Please enter your last name.</t>
   </si>
   <si>
-    <t>Please enter a valid email address.</t>
-  </si>
-  <si>
-    <t>Please enter a strong password.</t>
-  </si>
-  <si>
-    <t>Passwords do not match.</t>
-  </si>
-  <si>
-    <t>Please enter a valid mobile phone number.</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>errorMessage</t>
   </si>
   <si>
     <t>Account Home - Best Buy</t>
+  </si>
+  <si>
+    <t>example@gmail.com</t>
+  </si>
+  <si>
+    <t>SER</t>
   </si>
 </sst>
 </file>
@@ -449,12 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A35E886-596D-44E5-858E-F5C8262228D1}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6879DF42-4F97-43D7-9D9C-2DC01A071909}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,8 +453,8 @@
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -488,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -511,18 +500,18 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -537,142 +526,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE3FC328-4964-4F39-92F7-30DBDE873F06}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{A0C786DE-74D1-4A9E-AA06-0DFA4322F171}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>